--- a/Metropolitan Roads/27179/res_ITP-068-CIV-Camms-Rail Delineation Fencing -Permanent Rev 0.xlsx
+++ b/Metropolitan Roads/27179/res_ITP-068-CIV-Camms-Rail Delineation Fencing -Permanent Rev 0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\27179\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B86DB-85D1-45D6-8CD2-A143E5776E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08428A91-4D90-4090-900A-463806B517A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="1605" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="1515" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$287</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="138">
   <si>
     <t>type</t>
   </si>
@@ -116,72 +116,6 @@
     <t>1.1 Non Dependent</t>
   </si>
   <si>
-    <t xml:space="preserve">Document Title: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITP Description: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITP number: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discipline (e.g. CIV/STR/RAIL): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision Number: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision Date: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITP created by: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITP approved for use by: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFERENCE: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCEPTANCE CRITERIA: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">METHOD: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREQUENCY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATEGORY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPONSIBILITY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERIFYING DOCUMENTS: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 </t>
-  </si>
-  <si>
     <t>Materials</t>
   </si>
   <si>
@@ -191,34 +125,331 @@
     <t>Construction / Installation Activities</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11 </t>
-  </si>
-  <si>
     <t>Post-construction / Post-installation Activities</t>
+  </si>
+  <si>
+    <t>ITP-068-CIV-Camms-Rail Delineation Fencing-Permanent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Title: ITP-068-CIV-Camms-Rail Delineation Fencing-Permanent	</t>
+  </si>
+  <si>
+    <t>ITP-068-CIV-Camms-Rail Delineation Fencing-Permanent Rev 0</t>
+  </si>
+  <si>
+    <t>ITP Description: Camms-Rail Delineation Fencing-Permanent</t>
+  </si>
+  <si>
+    <t>ITP number: 068</t>
+  </si>
+  <si>
+    <t>Discipline (e.g. CIV/STR/RAIL): CIV</t>
+  </si>
+  <si>
+    <t>Revision Number: 0</t>
+  </si>
+  <si>
+    <t>Revision Date: 1/09/2023</t>
+  </si>
+  <si>
+    <t>ITP created by: Diana Delac</t>
+  </si>
+  <si>
+    <t>ITP approved for use by: Victor Mira</t>
+  </si>
+  <si>
+    <t>Reference: IFC Drawings L1-CHE-STD-005, L1-CHE-STD-025, VicRoads Section 610, VicRoads Section 630</t>
+  </si>
+  <si>
+    <t>2.1 Concrete</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings Section 610.07 Table 610.071</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete Mix is Registered with VicRoads.</t>
+  </si>
+  <si>
+    <t>○ 32MPa concrete to be used as per IFC drawings.</t>
+  </si>
+  <si>
+    <t>METHOD: Document Review</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Mix</t>
+  </si>
+  <si>
+    <t>CATEGORY: HP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: SE/Site Supervisor</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: Supplier Certificate of  Compliance</t>
+  </si>
+  <si>
+    <t>NOMINATED AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>2.2 Steel Columns, Cladding, Handrails, etc</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings AS41000, AS1163</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All Steel must comply with Australian Standards.</t>
+  </si>
+  <si>
+    <t>○ Steel section sizes must be checked on site.</t>
+  </si>
+  <si>
+    <t>○ Steel posts to be CHS with a grade of C250</t>
+  </si>
+  <si>
+    <t>METHOD: Document review, Visual and Measure</t>
+  </si>
+  <si>
+    <t>FREQUENCY: All elements</t>
+  </si>
+  <si>
+    <t>CATEGORY: IP</t>
+  </si>
+  <si>
+    <t>3.1 Survey Set-out</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Survey to set out the following but not limited to: existing services, post locations, refuge bays</t>
+  </si>
+  <si>
+    <t>○ Offset checked against the running edge prior to installation of posts.</t>
+  </si>
+  <si>
+    <t>METHOD: Measure, Visual</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each element</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Surveyor, SE/PE</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: This ITP</t>
+  </si>
+  <si>
+    <t>4.1 Excavation works</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings L1-CHE-STD-005</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Excavation for post foundation must not undermine footing of existing structures.</t>
+  </si>
+  <si>
+    <t>○ Follow asset owners guidelines for work around their service.</t>
+  </si>
+  <si>
+    <t>○ Excavation must use Non Distructive Digging in the rail corridor</t>
+  </si>
+  <si>
+    <t>METHOD: Visual</t>
+  </si>
+  <si>
+    <t>4.2 Ground Conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTANCE CRITERIA: All post (fence and gate) foundations to be inspected by the site team prior to installing the posts. All foundations are to be free of water and loose material. </t>
+  </si>
+  <si>
+    <t>○ If the ground material on site does not meet the design assumptions, the Geotechnical Engineer shall be notified to determine if design change is required.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each post</t>
+  </si>
+  <si>
+    <t>4.3 MTM OHW Structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTANCE CRITERIA: Fencing must be a minimum 2m away from OHW Structures. </t>
+  </si>
+  <si>
+    <t>○ Where temporary fence is in proximity of the OHW Structure, the OHW Structure is to be cladded with timber for a minimum height of 2.4m from ground level.</t>
+  </si>
+  <si>
+    <t>METHOD: Measure</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Overhead</t>
+  </si>
+  <si>
+    <t>4.4 Fence Post Foundation</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 32MPa concrete.</t>
+  </si>
+  <si>
+    <t>Typical Footing:</t>
+  </si>
+  <si>
+    <t>Alternative Strip Footing:</t>
+  </si>
+  <si>
+    <t>○ Footing dimension 900mm deep, cross section 300mm X 300mm</t>
+  </si>
+  <si>
+    <t>○ DN80 MS Pipe (88.9 X 4CHS) to be installed full depth.</t>
+  </si>
+  <si>
+    <t>○ 800x800x300mm thick</t>
+  </si>
+  <si>
+    <t>○ 101.6 x 4.0 CHS sleeve to be cast into footing.</t>
+  </si>
+  <si>
+    <t>○ 150x150x5 thick base plate welded to sleeve.</t>
+  </si>
+  <si>
+    <t>○ Refer to IFC drawing for reinforcement details.</t>
+  </si>
+  <si>
+    <t>○ Footing to be a min. 1m clear from proposed TTC footing</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each footing</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: Post and concrete dockets</t>
+  </si>
+  <si>
+    <t>4.5 Fence Post Installation</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Maximum post spacing to be 2.7m ± 250mm, two spans at 1350CTRS at gates, at the ends and at Refuge bays.</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: This ITP, Concrete Dockets</t>
+  </si>
+  <si>
+    <t>○ An individual fence space may be increased to Max. 3100mm locally to avois clashes with services.</t>
+  </si>
+  <si>
+    <t>○ Minimum offsets from centre of the rail to the fence: 3000mm</t>
+  </si>
+  <si>
+    <t>○ Alignment tolerance: +20mm to -0 (- being closer to the track)</t>
+  </si>
+  <si>
+    <t>○ Max. post height 1800mm above ground level.</t>
+  </si>
+  <si>
+    <t>○ Vertical Tolerance (Hight Risk Areas): ±20mm from the design line.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6 Chain Wire Mesh Installation </t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Chain-wire mesh 1800x50x2.50 to be fixed to fence post with 1.57mm tie wire.</t>
+  </si>
+  <si>
+    <t>○ 3 NO. W10Z TWIN-STRAND 3.15mm DIA. WIRES TWISTED BETWEEN POSTS. TENSIONED TO 1kN.</t>
+  </si>
+  <si>
+    <t>○ Chain shall be tightened and securely fastened to posts at max. 400 crs and tension wires at max. 500 intervals with 2.5 dia. galv. tire wire.</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: This ITP, Delivery dockets</t>
+  </si>
+  <si>
+    <t>4.7 Bracing</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 48.3 X 4 CHS brace at end bays and corners fixed each end via approved proprietary post and rail clamps.</t>
+  </si>
+  <si>
+    <t>○ Bracing to be installed on both sides of the fence at the fence corners.</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: This ITP, Steel delivery dockts</t>
+  </si>
+  <si>
+    <t>4.8 Refuge Installation</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Refuge Access to only open from track side.</t>
+  </si>
+  <si>
+    <t>○ No chain wire mesh to be installed at refuge access.</t>
+  </si>
+  <si>
+    <t>○ Refuge Access to be located every 20m max. along the fence.</t>
+  </si>
+  <si>
+    <t>○ 50dia PVC pipe push out bars to be installed. PVC tubes to be pushed off from track side only.</t>
+  </si>
+  <si>
+    <t>METHOD: Visual/Measure</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Every 20m Max.</t>
+  </si>
+  <si>
+    <t>4.9 Gate Post Foundation</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 350mm DIA. PILE</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: Post and Concrete Dockets</t>
+  </si>
+  <si>
+    <t>○ 1300mm DEPTH</t>
+  </si>
+  <si>
+    <t>○ 1200mm POST EMBEDMENT</t>
+  </si>
+  <si>
+    <t>○ 101.6 x 4 CHS GATE POST.</t>
+  </si>
+  <si>
+    <t>○ 1200 EMBEDMENT</t>
+  </si>
+  <si>
+    <t>○ 32MPa Concrete</t>
+  </si>
+  <si>
+    <t>4.10 Gate Installation - Post</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 3000mm nominal clear between the gate posts.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Post</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: Delivery Dockets</t>
+  </si>
+  <si>
+    <t>4.11 Gate Installation - Gate</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 2 NO. 1800mm (H) x 1500mm (W) ROUND TOP GATE</t>
+  </si>
+  <si>
+    <t>○ MINIMUM 2 NO. FENCE BAYS MUST BE PRESENT EITHER SIDE OF GATE TO ALLOW BRACING TO BE INSTALLED.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Gate</t>
+  </si>
+  <si>
+    <t>5.1 Fence Height and Track Clearance</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Posts are to be checked for verticality and ensure offset is not less than required from near face of post to centreline of track or as shown on alignment drawings.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each lot</t>
   </si>
 </sst>
 </file>
@@ -370,7 +601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,6 +806,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +976,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -763,6 +1000,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1120,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I250"/>
+  <dimension ref="A1:I287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1406,9 @@
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1416,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1198,7 +1442,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1206,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1214,7 +1458,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1230,7 +1474,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1238,7 +1482,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1246,7 +1490,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1254,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1262,7 +1506,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1278,7 +1522,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1286,7 +1530,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1294,7 +1538,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1302,7 +1546,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1318,15 +1562,15 @@
         <v>11</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
+      <c r="B21" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1334,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1342,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1350,7 +1594,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1358,7 +1602,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1366,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1374,7 +1618,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1382,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1390,7 +1634,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1398,47 +1642,47 @@
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>9</v>
+      <c r="B34" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>37</v>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,24 +1697,24 @@
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
+      <c r="B37" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>9</v>
+      <c r="B38" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>39</v>
+      <c r="B39" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1730,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1746,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1518,31 +1762,31 @@
         <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>49</v>
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>43</v>
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1550,39 +1794,39 @@
         <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>37</v>
+      <c r="A51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>9</v>
+      <c r="A52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>38</v>
+      <c r="B53" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,16 +1841,16 @@
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>39</v>
+      <c r="B55" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>9</v>
+      <c r="B56" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,7 +1858,7 @@
         <v>11</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1622,7 +1866,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1630,7 +1874,7 @@
         <v>11</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,31 +1890,31 @@
         <v>11</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>50</v>
+      <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>44</v>
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1678,7 +1922,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1686,31 +1930,31 @@
         <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>9</v>
+      <c r="A68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>38</v>
+      <c r="A69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1718,7 +1962,7 @@
         <v>11</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,31 +1970,31 @@
         <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
+      <c r="B72" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>40</v>
+      <c r="B73" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>9</v>
+      <c r="B74" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,7 +2002,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1766,7 +2010,7 @@
         <v>11</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,23 +2018,23 @@
         <v>11</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>45</v>
+      <c r="A79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1798,7 +2042,7 @@
         <v>11</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,24 +2057,24 @@
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>37</v>
+      <c r="B82" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>38</v>
+      <c r="A84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1846,23 +2090,23 @@
         <v>11</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>9</v>
+      <c r="B87" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>40</v>
+      <c r="B88" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +2122,7 @@
         <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,23 +2138,23 @@
         <v>11</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>51</v>
+      <c r="A94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,15 +2170,15 @@
         <v>11</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>37</v>
+      <c r="B97" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,23 +2186,23 @@
         <v>11</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>9</v>
+      <c r="A100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +2210,7 @@
         <v>11</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1981,16 +2225,16 @@
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>40</v>
+      <c r="B103" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>9</v>
+      <c r="B104" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +2242,7 @@
         <v>11</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2250,7 @@
         <v>11</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,23 +2258,23 @@
         <v>11</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>52</v>
+      <c r="A109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2038,7 +2282,7 @@
         <v>11</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,8 +2297,8 @@
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>37</v>
+      <c r="B112" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2070,23 +2314,23 @@
         <v>11</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>39</v>
+      <c r="A116" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,7 +2338,7 @@
         <v>11</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,71 +2346,71 @@
         <v>11</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>9</v>
+      <c r="B119" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>41</v>
+      <c r="B120" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>9</v>
+      <c r="B121" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>42</v>
+      <c r="B122" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>53</v>
+      <c r="A124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>36</v>
+      <c r="B125" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>9</v>
+      <c r="B126" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2174,15 +2418,15 @@
         <v>11</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>9</v>
+      <c r="B128" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2190,7 +2434,7 @@
         <v>11</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2198,7 +2442,7 @@
         <v>11</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2206,7 +2450,7 @@
         <v>11</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2214,7 +2458,7 @@
         <v>11</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2222,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,7 +2474,7 @@
         <v>11</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2238,7 +2482,7 @@
         <v>11</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2246,7 +2490,7 @@
         <v>11</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2254,31 +2498,31 @@
         <v>11</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>36</v>
+      <c r="B140" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2286,63 +2530,63 @@
         <v>11</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>37</v>
+      <c r="B142" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>9</v>
+      <c r="B143" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>38</v>
+      <c r="B144" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>9</v>
+      <c r="B145" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>39</v>
+      <c r="B146" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>9</v>
+      <c r="B147" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>40</v>
+      <c r="B148" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2602,7 @@
         <v>11</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,23 +2618,23 @@
         <v>11</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>55</v>
+      <c r="A154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2642,7 @@
         <v>11</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,15 +2650,15 @@
         <v>11</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>37</v>
+      <c r="B157" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,23 +2666,23 @@
         <v>11</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>9</v>
+      <c r="A160" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2446,7 +2690,7 @@
         <v>11</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2461,24 +2705,24 @@
       <c r="A163" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>40</v>
+      <c r="B163" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>9</v>
+      <c r="B164" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>41</v>
+      <c r="B165" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2494,23 +2738,23 @@
         <v>11</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>56</v>
+      <c r="A169" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2518,7 +2762,7 @@
         <v>11</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2526,15 +2770,15 @@
         <v>11</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>37</v>
+      <c r="B172" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2542,7 +2786,7 @@
         <v>11</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2550,7 +2794,7 @@
         <v>11</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2558,23 +2802,23 @@
         <v>11</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>9</v>
+      <c r="A177" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2582,7 +2826,7 @@
         <v>11</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -2597,16 +2841,16 @@
       <c r="A180" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>41</v>
+      <c r="B180" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>9</v>
+      <c r="B181" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -2614,23 +2858,23 @@
         <v>11</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>57</v>
+      <c r="A184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +2882,7 @@
         <v>11</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2653,8 +2897,8 @@
       <c r="A187" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>37</v>
+      <c r="B187" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -2670,7 +2914,7 @@
         <v>11</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,31 +2930,31 @@
         <v>11</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>40</v>
+      <c r="A193" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>9</v>
+      <c r="B194" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -2718,39 +2962,39 @@
         <v>11</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>9</v>
+      <c r="B196" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>42</v>
+      <c r="B197" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>58</v>
+      <c r="A199" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2758,7 +3002,7 @@
         <v>11</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2766,15 +3010,15 @@
         <v>11</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>37</v>
+      <c r="B202" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2790,7 +3034,7 @@
         <v>11</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +3042,7 @@
         <v>11</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2806,7 +3050,7 @@
         <v>11</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2814,7 +3058,7 @@
         <v>11</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2822,7 +3066,7 @@
         <v>11</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,23 +3074,23 @@
         <v>11</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>9</v>
+      <c r="A211" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2854,39 +3098,39 @@
         <v>11</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>59</v>
+      <c r="A214" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>36</v>
+      <c r="B215" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>9</v>
+      <c r="B216" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2894,23 +3138,23 @@
         <v>11</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>9</v>
+      <c r="B218" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>38</v>
+      <c r="B219" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2926,7 +3170,7 @@
         <v>11</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -2942,7 +3186,7 @@
         <v>11</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2958,7 +3202,7 @@
         <v>11</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,39 +3218,39 @@
         <v>11</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="3" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B230" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>36</v>
+      <c r="B231" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3014,55 +3258,55 @@
         <v>11</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>37</v>
+      <c r="B233" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>9</v>
+      <c r="B234" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>38</v>
+      <c r="B235" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>9</v>
+      <c r="B236" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>39</v>
+      <c r="B237" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>9</v>
+      <c r="B238" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3070,7 +3314,7 @@
         <v>11</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3078,7 +3322,7 @@
         <v>11</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3086,7 +3330,7 @@
         <v>11</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3094,7 +3338,7 @@
         <v>11</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3102,67 +3346,363 @@
         <v>11</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="7" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B250" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B246" s="7" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B283" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="7" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B284" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="7" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="B285" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="7" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B286" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="7" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B287" s="7" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I250" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I287" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
